--- a/StarOne C2-C4/Star One C2-C4.xlsx
+++ b/StarOne C2-C4/Star One C2-C4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="17">
   <si>
     <t>H</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Sem Sinal</t>
+  </si>
+  <si>
+    <t>Polaridade</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -183,9 +186,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,6 +201,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,13 +502,13 @@
   <dimension ref="A2:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -512,10 +516,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="31" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
@@ -528,162 +534,162 @@
       <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>11720</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="27">
+      <c r="C3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="26">
         <v>34285</v>
       </c>
-      <c r="E3" s="27" t="str">
+      <c r="E3" s="26" t="str">
         <f>"1/4"</f>
         <v>1/4</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="27" t="s">
+      <c r="F3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>11760</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="30">
+      <c r="C4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="29">
         <v>34285</v>
       </c>
-      <c r="E4" s="30" t="str">
+      <c r="E4" s="29" t="str">
         <f>"1/4"</f>
         <v>1/4</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="27" t="s">
+      <c r="F4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>11800</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="C5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="26">
         <v>34285</v>
       </c>
-      <c r="E5" s="30" t="str">
+      <c r="E5" s="29" t="str">
         <f>"3/4"</f>
         <v>3/4</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="27" t="s">
+      <c r="F5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="28">
         <v>11820</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="30">
+      <c r="C6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="29">
         <v>34285</v>
       </c>
-      <c r="E6" s="30" t="str">
+      <c r="E6" s="29" t="str">
         <f>"1/4"</f>
         <v>1/4</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="27" t="s">
+      <c r="F6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>12060</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="27">
+      <c r="C7" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="26">
         <v>34285</v>
       </c>
-      <c r="E7" s="30" t="str">
+      <c r="E7" s="29" t="str">
         <f>"3/4"</f>
         <v>3/4</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="27" t="s">
+      <c r="F7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
@@ -702,7 +708,7 @@
         <f>"3/5"</f>
         <v>3/5</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>4</v>
       </c>
       <c r="G8" t="s">
@@ -718,32 +724,32 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>12100</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="26">
         <v>34285</v>
       </c>
-      <c r="E9" s="27" t="str">
+      <c r="E9" s="26" t="str">
         <f>"1/4"</f>
         <v>1/4</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>8</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="23"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
@@ -775,29 +781,29 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>12140</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <v>34285</v>
       </c>
-      <c r="E11" s="27" t="str">
+      <c r="E11" s="26" t="str">
         <f>"1/4"</f>
         <v>1/4</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="27" t="s">
+      <c r="F11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="23"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
@@ -829,32 +835,32 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>12180</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <v>34285</v>
       </c>
-      <c r="E13" s="27" t="str">
+      <c r="E13" s="26" t="str">
         <f>"3/4"</f>
         <v>3/4</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>8</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="23"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
@@ -886,32 +892,32 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>12240</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="27">
+      <c r="C15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="26">
         <v>34285</v>
       </c>
-      <c r="E15" s="27" t="str">
+      <c r="E15" s="26" t="str">
         <f>"1/4"</f>
         <v>1/4</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="27" t="s">
         <v>8</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="23"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
@@ -1026,7 +1032,7 @@
         <f>"3/4"</f>
         <v>3/4</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1236,7 +1242,7 @@
         <f>"3/5"</f>
         <v>3/5</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="24" t="s">
         <v>4</v>
       </c>
       <c r="G29" t="s">
@@ -1251,32 +1257,32 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>12540</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="26">
         <v>34285</v>
       </c>
-      <c r="E30" s="27" t="str">
+      <c r="E30" s="26" t="str">
         <f>"1/4"</f>
         <v>1/4</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>8</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I30" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="23"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
@@ -1369,7 +1375,7 @@
         <f>"2/3"</f>
         <v>2/3</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1390,7 +1396,7 @@
         <f>"2/3"</f>
         <v>2/3</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1443,8 +1449,7 @@
       <c r="F38" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="1">
     <mergeCell ref="H2:K2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
